--- a/DS/Excel/aug11.xlsx
+++ b/DS/Excel/aug11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alakh Pandya\Desktop\Batches\21club5sep\DS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A57381-9DAC-4069-B5B5-233B54AB001B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FAA040E-4D6E-40F7-9DA9-266A3F8AAA63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="57">
   <si>
     <t>First Name</t>
   </si>
@@ -195,6 +195,9 @@
   </si>
   <si>
     <t>Full Name:</t>
+  </si>
+  <si>
+    <t>Sr No:</t>
   </si>
 </sst>
 </file>
@@ -255,7 +258,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -805,7 +808,7 @@
       <c r="A6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" t="s">
         <v>39</v>
       </c>
       <c r="C6" s="1"/>
@@ -834,224 +837,281 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15414128-6335-4A22-A2E2-8A9D22D8141C}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>50</v>
       </c>
-      <c r="G2" t="str">
-        <f>INDEX(B1:B11, 5)</f>
+      <c r="H2" t="str">
+        <f>INDEX(C1:C11, 5)</f>
         <v>Niti</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>24</v>
       </c>
-      <c r="G3" t="str">
-        <f>INDEX(A1:D11, 7, 4)</f>
+      <c r="H3" t="str">
+        <f>INDEX(B1:E11, 7, 4)</f>
         <v>Dr Perin Modi</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>26</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>52</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>27</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>51</v>
       </c>
-      <c r="G6">
-        <f>MATCH(G5, B1:B11, 0)</f>
+      <c r="H6">
+        <f>MATCH(H5, C1:C11, 0)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>8</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>28</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>53</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>4</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>16</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>29</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>51</v>
       </c>
-      <c r="G8">
-        <f>MATCH(G7, A1:A11, 0)</f>
+      <c r="H8">
+        <f>MATCH(H7, B1:B11, 0)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>4</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>18</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>12</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
         <v>3</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>19</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>20</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>31</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>54</v>
       </c>
-      <c r="G10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="H10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
         <v>4</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>17</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>10</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>32</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>55</v>
       </c>
-      <c r="G11" t="str">
-        <f>INDEX(D1:D11, MATCH(G10, B1:B11,))</f>
-        <v>Ms Niti Shah</v>
+      <c r="H11" t="str">
+        <f>INDEX(E1:E11, MATCH(H10, C1:C11,))</f>
+        <v>Ms Krisha Patel</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13" t="str">
+        <f>VLOOKUP(H12, A1:E11, 5)</f>
+        <v>Ms Krisha Patel</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H14" t="str">
+        <f>INDEX(E1:E11, MATCH(H12, A1:A11, 0))</f>
+        <v>Ms Krisha Patel</v>
       </c>
     </row>
   </sheetData>
